--- a/data_source/세무사데이터.xlsx
+++ b/data_source/세무사데이터.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoyo2\fas\tax_chatbot\data_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taeksin\Desktop\tax_bot_demo\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3D800F-70C1-4850-8A57-58D3FA35BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065DE865-90A3-41AF-9A11-EDD99DCA744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="0" windowWidth="33135" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$1:$C$492</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="127">
   <si>
     <t>파일명</t>
   </si>
@@ -44,33 +55,6 @@
   </si>
   <si>
     <t>연말정산 세무</t>
-  </si>
-  <si>
-    <r>
-      <t>연말정산 세무 &gt; 2024년 적용되는 연말정산 관련 주요내용 &gt; 01 출산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>･</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>보육수당 비과세 한도 상향 (소득법 제12조)</t>
-    </r>
-  </si>
-  <si>
-    <t>근로자(종교인포함) 본인 또는 배우자의 출산, 6세 이하 자녀의 보육과 관련하여 사용자로부터 지급받는 급여의 비과세 한도를 10만원에서 20만원으로 상향
-&lt;적용시기 : 2024.1.1.이후 지급받는 분부터 적용&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">연말정산 세무 &gt; 2024년 적용되는 연말정산 관련 주요내용 &gt; 02 육아휴직수당 비과세 적용대상 추가 (소득법) </t>
@@ -178,9 +162,6 @@
 &lt;적용시기 : 2024.1.1. 이후 지출하는 분부터 적용&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">연말정산 세무 &gt; 2024년 적용되는 연말정산 관련 주요내용 &gt; 11 고액기부 대한 공제율 한시 상향 (소득법 </t>
-  </si>
-  <si>
     <t>3천만원을 초과하여 지급한 기부금의 경우 공제율을 40%로 신설
 &lt;적용시기 : 2024. 12. 31.까지 한시적용&gt;</t>
   </si>
@@ -809,9 +790,6 @@
   <si>
     <t>예, 분리과세되는 주택임대소득만 있는 경우 기본공제를 받을 수 있습니다.
 기본공제 대상자의 소득요건인 연간 소득금액이 100만원 이하인지 여부를 계산할 때 비과세, 분리 과세 소득은 제외하고 판단합니다.</t>
-  </si>
-  <si>
-    <t>연말정산 세무 &gt; 2024년 적용되는 연말정산 관련 주요내용 &gt;2024년 연말정산 Q&amp;A &gt; 09 인적공제 – 연간소득금액 100만원 &gt; 3.  대학원생인 배우자가 2024년 6월에 연구용역비로 500만원을 받은 경우 배우자공제가 가능한지?</t>
   </si>
   <si>
     <t>소득자의 선택에 따라 달라집니다.
@@ -819,13 +797,6 @@
 기타소득금액은 기타소득 수입금액에서 필요경비를 차감하여 계산하며, 연구용역비의 필요경비 개 산공제율은 60%입니다. 따라서 배우자의 기타소득금액은 200만원(500만원-500만원×60%)이므 로 연간 소득금액이 100만원을 초과합니다.
 그러나, 기타소득금액은 연간합계액이 300만원 이하이면서 원천징수된 소득인 경우 분리과세와 종 합과세를 거주자가 선택할 수 있습니다.
 배우자가 분리과세를 선택한 경우에는 연간 소득금액 100만원 이하 여부를 판단할 때 분리과세소 득은 제외하므로 소득요건을 충족하게 되어 배우자 공제가 가능하고, 반면, 배우자가 종합과세를 선택한 경우에는 종합소득금액(기타소득금액)이 200만원이므로 연간 소득금액이 100만원을 초과하 여 배우자 공제를 받을 수 없습니다.</t>
-  </si>
-  <si>
-    <t>연말정산 세무 &gt; 2024년 적용되는 연말정산 관련 주요내용 &gt;2024년 연말정산 Q&amp;A &gt; 09 인적공제 – 연간소득금액 100만원 &gt; 4.  어머니가 국민연금으로 연 500만원을 지급받고 다른 소득이 없는 경우 기본공제를 받을 수 있는지?</t>
-  </si>
-  <si>
-    <t>예, 연금소득금액은 총연금수령액에서 연금소득공제를 차감하여 계산되며, 총연금수령액이 5,166,667원일 때 연금소득공제액은 4,166,667원으로 연금소득금액은 100만원이 됩니다.
-따라서 어머니의 경우처럼 연 500만원을 지급받는 경우 연간 소득금액이 100만원 이하이므로 기 본공제를 받을 수 있습니다.</t>
   </si>
   <si>
     <t>연말정산 세무 &gt; 2024년 적용되는 연말정산 관련 주요내용 &gt;2024년 연말정산 Q&amp;A &gt; 09 인적공제 – 연간소득금액 100만원 &gt; 5.  어머니가 국민연금으로 연 800만원을 지급받고 다른 소득이 없는 경우 기본공제를 받을 수 있는지?</t>
@@ -931,12 +902,3145 @@
     <t>예, 국민연금법의 규정에 따라 지역가입자로서 입사 전에 납부한 금액을 포함하여 당해연도에 납부 한 국민연금보험료 전액을 근로소득금액에서 공제합니다. 
 (소득, 서면인터넷방문상담1팀-476, 2004.3.26.)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주요내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고액기부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공제율</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소득법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주요내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>･</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>보육수당 비과세 한도 상향 (소득법 제12조)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근로자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종교인포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배우자의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자녀의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보육과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자로부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지급받는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>급여의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비과세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상향
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용시기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : 2024.1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지급받는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주요내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Q&amp;A &gt; 09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인적공제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연간소득금액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배우자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이자소득만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배우자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주요내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Q&amp;A &gt; 14 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연금보험료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>국민연금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공무원연금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>국민연금보험료는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간소화에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금액을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공제하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것인지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주요내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Q&amp;A &gt; 09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인적공제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연간소득금액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 4.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어머니가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>국민연금으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지급받고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소득이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본공제를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연금소득금액은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총연금수령액에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연금소득공제를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차감하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계산되며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총연금수령액이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5,166,667</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연금소득공제액은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4,166,667</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연금소득금액은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어머니의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우처럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지급받는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소득금액이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하이므로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본공제를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주요내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Q&amp;A &gt; 09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인적공제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연간소득금액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 3.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대학원생인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배우자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연구용역비로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배우자공제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +4087,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1036,7 +4161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1075,6 +4200,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1383,8 +4517,9 @@
   </sheetPr>
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1420,11 +4555,11 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
+      <c r="C2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E33" si="0">LEN(D2)</f>
@@ -1439,10 +4574,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
@@ -1457,10 +4592,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
@@ -1475,10 +4610,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
@@ -1493,10 +4628,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
@@ -1511,10 +4646,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
@@ -1529,10 +4664,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
@@ -1547,10 +4682,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
@@ -1565,10 +4700,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
@@ -1583,10 +4718,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
@@ -1600,11 +4735,11 @@
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
+      <c r="C12" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
@@ -1619,10 +4754,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
@@ -1637,10 +4772,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
@@ -1655,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
@@ -1673,10 +4808,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
@@ -1691,10 +4826,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
@@ -1709,10 +4844,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
@@ -1727,10 +4862,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
@@ -1745,10 +4880,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="0"/>
@@ -1763,10 +4898,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="0"/>
@@ -1781,10 +4916,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
@@ -1799,10 +4934,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="0"/>
@@ -1817,10 +4952,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
@@ -1835,10 +4970,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" si="0"/>
@@ -1853,10 +4988,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
@@ -1871,10 +5006,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
@@ -1889,10 +5024,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E28" s="10">
         <f t="shared" si="0"/>
@@ -1907,10 +5042,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="0"/>
@@ -1925,10 +5060,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="0"/>
@@ -1943,10 +5078,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
@@ -1961,10 +5096,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="0"/>
@@ -1979,10 +5114,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E33" s="10">
         <f t="shared" si="0"/>
@@ -1997,10 +5132,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E34" s="10">
         <f t="shared" ref="E34:E65" si="1">LEN(D34)</f>
@@ -2015,10 +5150,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E35" s="10">
         <f t="shared" si="1"/>
@@ -2033,10 +5168,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E36" s="10">
         <f t="shared" si="1"/>
@@ -2051,10 +5186,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E37" s="10">
         <f t="shared" si="1"/>
@@ -2069,10 +5204,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E38" s="10">
         <f t="shared" si="1"/>
@@ -2087,10 +5222,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E39" s="10">
         <f t="shared" si="1"/>
@@ -2105,10 +5240,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E40" s="10">
         <f t="shared" si="1"/>
@@ -2123,10 +5258,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E41" s="10">
         <f t="shared" si="1"/>
@@ -2141,10 +5276,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E42" s="10">
         <f t="shared" si="1"/>
@@ -2159,10 +5294,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E43" s="10">
         <f t="shared" si="1"/>
@@ -2177,10 +5312,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="1"/>
@@ -2195,28 +5330,28 @@
         <v>6</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E45" s="10">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>95</v>
+      <c r="C46" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E46" s="10">
         <f t="shared" si="1"/>
@@ -2230,11 +5365,11 @@
       <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>98</v>
+      <c r="C47" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="E47" s="10">
         <f t="shared" si="1"/>
@@ -2249,10 +5384,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E48" s="10">
         <f t="shared" si="1"/>
@@ -2267,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E49" s="10">
         <f t="shared" si="1"/>
@@ -2285,10 +5420,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" si="1"/>
@@ -2303,10 +5438,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" si="1"/>
@@ -2321,10 +5456,10 @@
         <v>6</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" si="1"/>
@@ -2339,10 +5474,10 @@
         <v>6</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="1"/>
@@ -2357,10 +5492,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" si="1"/>
@@ -2375,10 +5510,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E55" s="10">
         <f t="shared" si="1"/>
@@ -2393,10 +5528,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E56" s="10">
         <f t="shared" si="1"/>
@@ -2411,10 +5546,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E57" s="10">
         <f t="shared" si="1"/>
@@ -2429,10 +5564,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E58" s="10">
         <f t="shared" si="1"/>
@@ -2446,11 +5581,11 @@
       <c r="B59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>121</v>
+      <c r="C59" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E59" s="10">
         <f t="shared" si="1"/>
@@ -2465,10 +5600,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E60" s="10">
         <f t="shared" si="1"/>
@@ -2483,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="10">
@@ -2499,7 +5634,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="10">
@@ -2515,7 +5650,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="10">
@@ -2531,7 +5666,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="10">
@@ -2547,7 +5682,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="10">
@@ -2563,7 +5698,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="10">
@@ -2579,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="10">
@@ -2595,7 +5730,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="10">
@@ -2610,8 +5745,8 @@
       <c r="B69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>91</v>
+      <c r="C69" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="10">
@@ -2627,7 +5762,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="10">
@@ -2643,7 +5778,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="10">
@@ -2659,7 +5794,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="10">
@@ -2675,7 +5810,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="10">
@@ -2691,7 +5826,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="10">
@@ -2707,7 +5842,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="10">
@@ -2723,7 +5858,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="10">
@@ -2739,7 +5874,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="10">
